--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.463352</v>
+        <v>44.079424</v>
       </c>
       <c r="H2">
-        <v>64.926704</v>
+        <v>88.15884800000001</v>
       </c>
       <c r="I2">
-        <v>0.1868964362469281</v>
+        <v>0.1543534357796567</v>
       </c>
       <c r="J2">
-        <v>0.1416780266876995</v>
+        <v>0.1129913173817406</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0215165</v>
+        <v>6.861577</v>
       </c>
       <c r="N2">
-        <v>0.043033</v>
+        <v>20.584731</v>
       </c>
       <c r="O2">
-        <v>0.005938751083393454</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P2">
-        <v>0.00396702043790345</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q2">
-        <v>0.698497713308</v>
+        <v>302.454361891648</v>
       </c>
       <c r="R2">
-        <v>2.793990853232</v>
+        <v>1814.726171349888</v>
       </c>
       <c r="S2">
-        <v>0.00110993141324382</v>
+        <v>0.003633471749174795</v>
       </c>
       <c r="T2">
-        <v>0.0005620396274719346</v>
+        <v>0.002659809660438453</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.463352</v>
+        <v>44.079424</v>
       </c>
       <c r="H3">
-        <v>64.926704</v>
+        <v>88.15884800000001</v>
       </c>
       <c r="I3">
-        <v>0.1868964362469281</v>
+        <v>0.1543534357796567</v>
       </c>
       <c r="J3">
-        <v>0.1416780266876995</v>
+        <v>0.1129913173817406</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>3.398996666666667</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N3">
-        <v>10.19699</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O3">
-        <v>0.938154213585732</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P3">
-        <v>0.940015052055332</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q3">
-        <v>110.3428252368267</v>
+        <v>12459.32110487351</v>
       </c>
       <c r="R3">
-        <v>662.05695142096</v>
+        <v>74755.92662924109</v>
       </c>
       <c r="S3">
-        <v>0.1753376791692127</v>
+        <v>0.1496774289030523</v>
       </c>
       <c r="T3">
-        <v>0.1331794776319346</v>
+        <v>0.1095683409225198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.463352</v>
+        <v>44.079424</v>
       </c>
       <c r="H4">
-        <v>64.926704</v>
+        <v>88.15884800000001</v>
       </c>
       <c r="I4">
-        <v>0.1868964362469281</v>
+        <v>0.1543534357796567</v>
       </c>
       <c r="J4">
-        <v>0.1416780266876995</v>
+        <v>0.1129913173817406</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07911866666666666</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N4">
-        <v>0.237356</v>
+        <v>5.906281</v>
       </c>
       <c r="O4">
-        <v>0.02183747669850171</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P4">
-        <v>0.02188079155668931</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q4">
-        <v>2.568457125770666</v>
+        <v>86.78182148738134</v>
       </c>
       <c r="R4">
-        <v>15.410742754624</v>
+        <v>520.6909289242881</v>
       </c>
       <c r="S4">
-        <v>0.004081346571575303</v>
+        <v>0.001042535127429543</v>
       </c>
       <c r="T4">
-        <v>0.003100027370116619</v>
+        <v>0.0007631667987822668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.463352</v>
+        <v>17.29889033333333</v>
       </c>
       <c r="H5">
-        <v>64.926704</v>
+        <v>51.896671</v>
       </c>
       <c r="I5">
-        <v>0.1868964362469281</v>
+        <v>0.06057572708131326</v>
       </c>
       <c r="J5">
-        <v>0.1416780266876995</v>
+        <v>0.06651485763535353</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1234363333333333</v>
+        <v>6.861577</v>
       </c>
       <c r="N5">
-        <v>0.370309</v>
+        <v>20.584731</v>
       </c>
       <c r="O5">
-        <v>0.03406955863237277</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P5">
-        <v>0.03413713595007526</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q5">
-        <v>4.007157138589333</v>
+        <v>118.6976680367223</v>
       </c>
       <c r="R5">
-        <v>24.042942831536</v>
+        <v>1068.279012330501</v>
       </c>
       <c r="S5">
-        <v>0.006367479092896236</v>
+        <v>0.001425949425252009</v>
       </c>
       <c r="T5">
-        <v>0.00483648205817639</v>
+        <v>0.001565756245707704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>51.896671</v>
       </c>
       <c r="I6">
-        <v>0.09959233274267038</v>
+        <v>0.06057572708131326</v>
       </c>
       <c r="J6">
-        <v>0.1132448974914969</v>
+        <v>0.06651485763535353</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0215165</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N6">
-        <v>0.043033</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O6">
-        <v>0.005938751083393454</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P6">
-        <v>0.00396702043790345</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q6">
-        <v>0.3722115738571667</v>
+        <v>4889.638063804836</v>
       </c>
       <c r="R6">
-        <v>2.233269443143</v>
+        <v>44006.74257424352</v>
       </c>
       <c r="S6">
-        <v>0.000591454073973215</v>
+        <v>0.05874063662830981</v>
       </c>
       <c r="T6">
-        <v>0.0004492448228370494</v>
+        <v>0.06449984624199999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>51.896671</v>
       </c>
       <c r="I7">
-        <v>0.09959233274267038</v>
+        <v>0.06057572708131326</v>
       </c>
       <c r="J7">
-        <v>0.1132448974914969</v>
+        <v>0.06651485763535353</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>3.398996666666667</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N7">
-        <v>10.19699</v>
+        <v>5.906281</v>
       </c>
       <c r="O7">
-        <v>0.938154213585732</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P7">
-        <v>0.940015052055332</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q7">
-        <v>58.79887058003222</v>
+        <v>34.0573690989501</v>
       </c>
       <c r="R7">
-        <v>529.18983522029</v>
+        <v>306.516321890551</v>
       </c>
       <c r="S7">
-        <v>0.09343296660336847</v>
+        <v>0.0004091410277514367</v>
       </c>
       <c r="T7">
-        <v>0.1064519082104702</v>
+        <v>0.0004492551476458324</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.29889033333333</v>
+        <v>32.855634</v>
       </c>
       <c r="H8">
-        <v>51.896671</v>
+        <v>98.566902</v>
       </c>
       <c r="I8">
-        <v>0.09959233274267038</v>
+        <v>0.1150509587561512</v>
       </c>
       <c r="J8">
-        <v>0.1132448974914969</v>
+        <v>0.1263310984646364</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07911866666666666</v>
+        <v>6.861577</v>
       </c>
       <c r="N8">
-        <v>0.237356</v>
+        <v>20.584731</v>
       </c>
       <c r="O8">
-        <v>0.02183747669850171</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P8">
-        <v>0.02188079155668931</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q8">
-        <v>1.368665137986222</v>
+        <v>225.441462574818</v>
       </c>
       <c r="R8">
-        <v>12.317986241876</v>
+        <v>2028.973163173362</v>
       </c>
       <c r="S8">
-        <v>0.002174845245617494</v>
+        <v>0.00270829350992034</v>
       </c>
       <c r="T8">
-        <v>0.002477887996870092</v>
+        <v>0.002973827404585531</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.29889033333333</v>
+        <v>32.855634</v>
       </c>
       <c r="H9">
-        <v>51.896671</v>
+        <v>98.566902</v>
       </c>
       <c r="I9">
-        <v>0.09959233274267038</v>
+        <v>0.1150509587561512</v>
       </c>
       <c r="J9">
-        <v>0.1132448974914969</v>
+        <v>0.1263310984646364</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1234363333333333</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N9">
-        <v>0.370309</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O9">
-        <v>0.03406955863237277</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P9">
-        <v>0.03413713595007526</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q9">
-        <v>2.135311593482111</v>
+        <v>9286.847625554268</v>
       </c>
       <c r="R9">
-        <v>19.217804341339</v>
+        <v>83581.62862998841</v>
       </c>
       <c r="S9">
-        <v>0.003393066819711187</v>
+        <v>0.1115655872023125</v>
       </c>
       <c r="T9">
-        <v>0.003865856461319567</v>
+        <v>0.1225040046123629</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.28701066666666</v>
+        <v>32.855634</v>
       </c>
       <c r="H10">
-        <v>78.86103199999999</v>
+        <v>98.566902</v>
       </c>
       <c r="I10">
-        <v>0.1513383033638974</v>
+        <v>0.1150509587561512</v>
       </c>
       <c r="J10">
-        <v>0.172084438420215</v>
+        <v>0.1263310984646364</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0215165</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N10">
-        <v>0.043033</v>
+        <v>5.906281</v>
       </c>
       <c r="O10">
-        <v>0.005938751083393454</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P10">
-        <v>0.00396702043790345</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q10">
-        <v>0.5656044650093333</v>
+        <v>64.68486894571799</v>
       </c>
       <c r="R10">
-        <v>3.393626790056</v>
+        <v>582.1638205114619</v>
       </c>
       <c r="S10">
-        <v>0.0008987605130612726</v>
+        <v>0.000777078043918369</v>
       </c>
       <c r="T10">
-        <v>0.0006826624842581307</v>
+        <v>0.0008532664476879893</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.28701066666666</v>
+        <v>32.4176935</v>
       </c>
       <c r="H11">
-        <v>78.86103199999999</v>
+        <v>64.835387</v>
       </c>
       <c r="I11">
-        <v>0.1513383033638974</v>
+        <v>0.1135174173731681</v>
       </c>
       <c r="J11">
-        <v>0.172084438420215</v>
+        <v>0.08309813429146642</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>3.398996666666667</v>
+        <v>6.861577</v>
       </c>
       <c r="N11">
-        <v>10.19699</v>
+        <v>20.584731</v>
       </c>
       <c r="O11">
-        <v>0.938154213585732</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P11">
-        <v>0.940015052055332</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q11">
-        <v>89.3494616326311</v>
+        <v>222.4365001126495</v>
       </c>
       <c r="R11">
-        <v>804.14515469368</v>
+        <v>1334.619000675897</v>
       </c>
       <c r="S11">
-        <v>0.1419786669777561</v>
+        <v>0.002672194026529416</v>
       </c>
       <c r="T11">
-        <v>0.161761962339491</v>
+        <v>0.001956125704828467</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.28701066666666</v>
+        <v>32.4176935</v>
       </c>
       <c r="H12">
-        <v>78.86103199999999</v>
+        <v>64.835387</v>
       </c>
       <c r="I12">
-        <v>0.1513383033638974</v>
+        <v>0.1135174173731681</v>
       </c>
       <c r="J12">
-        <v>0.172084438420215</v>
+        <v>0.08309813429146642</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07911866666666666</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N12">
-        <v>0.237356</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O12">
-        <v>0.02183747669850171</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P12">
-        <v>0.02188079155668931</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q12">
-        <v>2.079793234599111</v>
+        <v>9163.061041720302</v>
       </c>
       <c r="R12">
-        <v>18.718139111392</v>
+        <v>54978.36625032181</v>
       </c>
       <c r="S12">
-        <v>0.003304846673299892</v>
+        <v>0.1100785031593696</v>
       </c>
       <c r="T12">
-        <v>0.003765343727222663</v>
+        <v>0.08058074654808908</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.28701066666666</v>
+        <v>32.4176935</v>
       </c>
       <c r="H13">
-        <v>78.86103199999999</v>
+        <v>64.835387</v>
       </c>
       <c r="I13">
-        <v>0.1513383033638974</v>
+        <v>0.1135174173731681</v>
       </c>
       <c r="J13">
-        <v>0.172084438420215</v>
+        <v>0.08309813429146642</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1234363333333333</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N13">
-        <v>0.370309</v>
+        <v>5.906281</v>
       </c>
       <c r="O13">
-        <v>0.03406955863237277</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P13">
-        <v>0.03413713595007526</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q13">
-        <v>3.244772210987555</v>
+        <v>63.82266906095783</v>
       </c>
       <c r="R13">
-        <v>29.202949898888</v>
+        <v>382.936014365747</v>
       </c>
       <c r="S13">
-        <v>0.005156029199780119</v>
+        <v>0.0007667201872691065</v>
       </c>
       <c r="T13">
-        <v>0.005874469869243234</v>
+        <v>0.0005612620385488635</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.3582775</v>
+        <v>142.927429</v>
       </c>
       <c r="H14">
-        <v>60.716555</v>
+        <v>428.782287</v>
       </c>
       <c r="I14">
-        <v>0.1747772033937007</v>
+        <v>0.5004906537186814</v>
       </c>
       <c r="J14">
-        <v>0.1324909654997299</v>
+        <v>0.549561122646312</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0215165</v>
+        <v>6.861577</v>
       </c>
       <c r="N14">
-        <v>0.043033</v>
+        <v>20.584731</v>
       </c>
       <c r="O14">
-        <v>0.005938751083393454</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P14">
-        <v>0.00396702043790345</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q14">
-        <v>0.65320387782875</v>
+        <v>980.7075594955329</v>
       </c>
       <c r="R14">
-        <v>2.612815511315</v>
+        <v>8826.368035459796</v>
       </c>
       <c r="S14">
-        <v>0.001037958306006818</v>
+        <v>0.01178152363002035</v>
       </c>
       <c r="T14">
-        <v>0.0005255943679749896</v>
+        <v>0.01293663988426316</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.3582775</v>
+        <v>142.927429</v>
       </c>
       <c r="H15">
-        <v>60.716555</v>
+        <v>428.782287</v>
       </c>
       <c r="I15">
-        <v>0.1747772033937007</v>
+        <v>0.5004906537186814</v>
       </c>
       <c r="J15">
-        <v>0.1324909654997299</v>
+        <v>0.549561122646312</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>3.398996666666667</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N15">
-        <v>10.19699</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O15">
-        <v>0.938154213585732</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P15">
-        <v>0.940015052055332</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q15">
-        <v>103.1876840282417</v>
+        <v>40399.31947851702</v>
       </c>
       <c r="R15">
-        <v>619.1261041694499</v>
+        <v>363593.8753066532</v>
       </c>
       <c r="S15">
-        <v>0.1639679698025308</v>
+        <v>0.4853287123816218</v>
       </c>
       <c r="T15">
-        <v>0.1245435018310898</v>
+        <v>0.5329126329277096</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.3582775</v>
+        <v>142.927429</v>
       </c>
       <c r="H16">
-        <v>60.716555</v>
+        <v>428.782287</v>
       </c>
       <c r="I16">
-        <v>0.1747772033937007</v>
+        <v>0.5004906537186814</v>
       </c>
       <c r="J16">
-        <v>0.1324909654997299</v>
+        <v>0.549561122646312</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.07911866666666666</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N16">
-        <v>0.237356</v>
+        <v>5.906281</v>
       </c>
       <c r="O16">
-        <v>0.02183747669850171</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P16">
-        <v>0.02188079155668931</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q16">
-        <v>2.401906438096666</v>
+        <v>281.3898527605163</v>
       </c>
       <c r="R16">
-        <v>14.41143862858</v>
+        <v>2532.508674844647</v>
       </c>
       <c r="S16">
-        <v>0.003816693106539234</v>
+        <v>0.003380417707039273</v>
       </c>
       <c r="T16">
-        <v>0.002899007199244106</v>
+        <v>0.003711849834339137</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,70 +1464,70 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.3582775</v>
+        <v>15.99555066666667</v>
       </c>
       <c r="H17">
-        <v>60.716555</v>
+        <v>47.986652</v>
       </c>
       <c r="I17">
-        <v>0.1747772033937007</v>
+        <v>0.05601180729102942</v>
       </c>
       <c r="J17">
-        <v>0.1324909654997299</v>
+        <v>0.06150346958049106</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1234363333333333</v>
+        <v>6.861577</v>
       </c>
       <c r="N17">
-        <v>0.370309</v>
+        <v>20.584731</v>
       </c>
       <c r="O17">
-        <v>0.03406955863237277</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P17">
-        <v>0.03413713595007526</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q17">
-        <v>3.747314460915833</v>
+        <v>109.7547025567347</v>
       </c>
       <c r="R17">
-        <v>22.483886765495</v>
+        <v>987.7923230106119</v>
       </c>
       <c r="S17">
-        <v>0.005954582178623828</v>
+        <v>0.001318514993749178</v>
       </c>
       <c r="T17">
-        <v>0.004522862101421012</v>
+        <v>0.001447788434822767</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>25.10201533333333</v>
+        <v>15.99555066666667</v>
       </c>
       <c r="H18">
-        <v>75.30604599999999</v>
+        <v>47.986652</v>
       </c>
       <c r="I18">
-        <v>0.1445161056817467</v>
+        <v>0.05601180729102942</v>
       </c>
       <c r="J18">
-        <v>0.164327023206555</v>
+        <v>0.06150346958049106</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0215165</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N18">
-        <v>0.043033</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O18">
-        <v>0.005938751083393454</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P18">
-        <v>0.00396702043790345</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q18">
-        <v>0.5401075129196666</v>
+        <v>4521.241067153545</v>
       </c>
       <c r="R18">
-        <v>3.240645077518</v>
+        <v>40691.16960438191</v>
       </c>
       <c r="S18">
-        <v>0.0008582451791852762</v>
+        <v>0.05431497693062348</v>
       </c>
       <c r="T18">
-        <v>0.0006518886595602383</v>
+        <v>0.05964027395260789</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,418 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>25.10201533333333</v>
+        <v>15.99555066666667</v>
       </c>
       <c r="H19">
-        <v>75.30604599999999</v>
+        <v>47.986652</v>
       </c>
       <c r="I19">
-        <v>0.1445161056817467</v>
+        <v>0.05601180729102942</v>
       </c>
       <c r="J19">
-        <v>0.164327023206555</v>
+        <v>0.06150346958049106</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>3.398996666666667</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N19">
-        <v>10.19699</v>
+        <v>5.906281</v>
       </c>
       <c r="O19">
-        <v>0.938154213585732</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P19">
-        <v>0.940015052055332</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q19">
-        <v>85.32166644461554</v>
+        <v>31.49140566235689</v>
       </c>
       <c r="R19">
-        <v>767.8949980015399</v>
+        <v>283.422650961212</v>
       </c>
       <c r="S19">
-        <v>0.1355783934763316</v>
+        <v>0.0003783153666567657</v>
       </c>
       <c r="T19">
-        <v>0.1544698752736076</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>25.10201533333333</v>
-      </c>
-      <c r="H20">
-        <v>75.30604599999999</v>
-      </c>
-      <c r="I20">
-        <v>0.1445161056817467</v>
-      </c>
-      <c r="J20">
-        <v>0.164327023206555</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.07911866666666666</v>
-      </c>
-      <c r="N20">
-        <v>0.237356</v>
-      </c>
-      <c r="O20">
-        <v>0.02183747669850171</v>
-      </c>
-      <c r="P20">
-        <v>0.02188079155668931</v>
-      </c>
-      <c r="Q20">
-        <v>1.986037983819555</v>
-      </c>
-      <c r="R20">
-        <v>17.874341854376</v>
-      </c>
-      <c r="S20">
-        <v>0.003155867090383355</v>
-      </c>
-      <c r="T20">
-        <v>0.003595605341913878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>25.10201533333333</v>
-      </c>
-      <c r="H21">
-        <v>75.30604599999999</v>
-      </c>
-      <c r="I21">
-        <v>0.1445161056817467</v>
-      </c>
-      <c r="J21">
-        <v>0.164327023206555</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.1234363333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.370309</v>
-      </c>
-      <c r="O21">
-        <v>0.03406955863237277</v>
-      </c>
-      <c r="P21">
-        <v>0.03413713595007526</v>
-      </c>
-      <c r="Q21">
-        <v>3.098500732023777</v>
-      </c>
-      <c r="R21">
-        <v>27.886506588214</v>
-      </c>
-      <c r="S21">
-        <v>0.00492359993584645</v>
-      </c>
-      <c r="T21">
-        <v>0.00560965393147334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>42.18746333333333</v>
-      </c>
-      <c r="H22">
-        <v>126.56239</v>
-      </c>
-      <c r="I22">
-        <v>0.2428796185710567</v>
-      </c>
-      <c r="J22">
-        <v>0.2761746486943036</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22">
-        <v>0.0215165</v>
-      </c>
-      <c r="N22">
-        <v>0.043033</v>
-      </c>
-      <c r="O22">
-        <v>0.005938751083393454</v>
-      </c>
-      <c r="P22">
-        <v>0.00396702043790345</v>
-      </c>
-      <c r="Q22">
-        <v>0.9077265548116668</v>
-      </c>
-      <c r="R22">
-        <v>5.44635932887</v>
-      </c>
-      <c r="S22">
-        <v>0.001442401597923052</v>
-      </c>
-      <c r="T22">
-        <v>0.001095590475801108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>42.18746333333333</v>
-      </c>
-      <c r="H23">
-        <v>126.56239</v>
-      </c>
-      <c r="I23">
-        <v>0.2428796185710567</v>
-      </c>
-      <c r="J23">
-        <v>0.2761746486943036</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>3.398996666666667</v>
-      </c>
-      <c r="N23">
-        <v>10.19699</v>
-      </c>
-      <c r="O23">
-        <v>0.938154213585732</v>
-      </c>
-      <c r="P23">
-        <v>0.940015052055332</v>
-      </c>
-      <c r="Q23">
-        <v>143.3950472451222</v>
-      </c>
-      <c r="R23">
-        <v>1290.5554252061</v>
-      </c>
-      <c r="S23">
-        <v>0.2278585375565322</v>
-      </c>
-      <c r="T23">
-        <v>0.2596083267687389</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>42.18746333333333</v>
-      </c>
-      <c r="H24">
-        <v>126.56239</v>
-      </c>
-      <c r="I24">
-        <v>0.2428796185710567</v>
-      </c>
-      <c r="J24">
-        <v>0.2761746486943036</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.07911866666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.237356</v>
-      </c>
-      <c r="O24">
-        <v>0.02183747669850171</v>
-      </c>
-      <c r="P24">
-        <v>0.02188079155668931</v>
-      </c>
-      <c r="Q24">
-        <v>3.337815848982222</v>
-      </c>
-      <c r="R24">
-        <v>30.04034264084</v>
-      </c>
-      <c r="S24">
-        <v>0.005303878011086434</v>
-      </c>
-      <c r="T24">
-        <v>0.006042919921321956</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>42.18746333333333</v>
-      </c>
-      <c r="H25">
-        <v>126.56239</v>
-      </c>
-      <c r="I25">
-        <v>0.2428796185710567</v>
-      </c>
-      <c r="J25">
-        <v>0.2761746486943036</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.1234363333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.370309</v>
-      </c>
-      <c r="O25">
-        <v>0.03406955863237277</v>
-      </c>
-      <c r="P25">
-        <v>0.03413713595007526</v>
-      </c>
-      <c r="Q25">
-        <v>5.207465786501111</v>
-      </c>
-      <c r="R25">
-        <v>46.86719207850999</v>
-      </c>
-      <c r="S25">
-        <v>0.00827480140551495</v>
-      </c>
-      <c r="T25">
-        <v>0.009427811528441719</v>
+        <v>0.0004154071930604023</v>
       </c>
     </row>
   </sheetData>
